--- a/biology/Botanique/Vespaiola/Vespaiola.xlsx
+++ b/biology/Botanique/Vespaiola/Vespaiola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La vespaiola est un cépage italien de raisins blancs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle  provient du nord de l'Italie. Bien que déjà décrit par Acerbi (1825) et Di Rovasenda (1877), son origine n'est pas encore définie.
 Elle est classée cépage d'appoint en DOC Breganze Torcolato et Breganze Vespaiolo.
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux, vert blanchâtre à liseré bronzé.
 Jeunes feuilles duveteuses, vert clair à plages bronzées.
@@ -577,7 +593,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque tardive: 35 jours après le chasselas.
 </t>
@@ -608,7 +626,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont petites et les baies sont de taille moyenne. La grappe est cylindro-conique. Le cépage est de bonne vigueur et d'une fertilité moyenne. Elle est sensible à la pourriture.
 Elle donne des vins d'un jaune doré, assez alcoolique et légèrement parfumé.
@@ -640,7 +660,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La vespaiola est connue sous les noms de bespaia, bresparola, bresparola bianco, uva vespera, vespaia, vespaiolo, vesparola et vespera.
 </t>
